--- a/api/app_api/backlog/referral/idReseller4- negative.xlsx
+++ b/api/app_api/backlog/referral/idReseller4- negative.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\referral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB04C4B-7F5C-442A-8D3A-B50D278B558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E301DCF7-7CA5-4472-986F-C8E3554C895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="idreseller4" sheetId="1" r:id="rId1"/>
+    <sheet name="idReseller4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -119,273 +119,6 @@
     <t>SYM-API-SP-021</t>
   </si>
   <si>
-    <t>Test Scenario: idReseller4 Field (Negative)</t>
-  </si>
-  <si>
-    <t>check idReseller4 with a negative integer
-input: "-123"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with a negative integer
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with zero
-input: "0"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with zero
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with a negative floating-point number
-input: "-123.456"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with a negative floating-point number
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with a negative scientific notation
-input: "-1.23e3"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with a negative scientific notation
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with non-numeric characters
-input: "abc"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with non-numeric characters
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with special characters only
-input: "!@#"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with special characters only
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with alphabets only
-input: "abc"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with alphabets only
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with non-ASCII characters
-input: "äbc"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with non-ASCII characters
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with leading whitespace
-input: " 123"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with leading whitespace
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with trailing whitespace
-input: "123 "</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with trailing whitespace
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with leading and trailing whitespace
-input: " 123 "</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with leading and trailing whitespace
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with empty string
-input: ""</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with empty string
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with null value
-input: null</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with null value
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with missing value
-input:</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with missing value
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with special characters and alphabets
-input: "abc!@#"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with special characters and alphabets
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with special characters and numbers
-input: "123!@#"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with special characters and numbers
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with alphabets and numbers
-input: "abc123"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with alphabets and numbers
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with invalid separators
-input: "123,456;789"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with invalid separators
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with negative integers and alphabets
-input: "-123abc"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with negative integers and alphabets
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with negative floating-point numbers and special characters
-input: "-123.456!@#"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with negative floating-point numbers and special characters
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with invalid characters and valid separators
-input: "123|abc,456"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with invalid characters and valid separators
-6. review the response status code.</t>
-  </si>
-  <si>
-    <t>check idReseller4 with excessive length
-input: "1234567890123456789012345678901"</t>
-  </si>
-  <si>
-    <t>1. open the postman
-2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with excessive length
-6. review the response status code.</t>
-  </si>
-  <si>
     <t>SYM-API-SP-022</t>
   </si>
   <si>
@@ -398,15 +131,279 @@
     <t>SYM-API-SP-025</t>
   </si>
   <si>
+    <t>check idReseller4 with a negative integer
+input: "-123"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with a negative integer
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with zero
+input: "0"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with zero
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with a negative floating-point number
+input: "-123.456"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with a negative floating-point number
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with a negative scientific notation
+input: "-1.23e3"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with a negative scientific notation
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with non-numeric characters
+input: "abc"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with non-numeric characters
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with special characters only
+input: "!@#"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with special characters only
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with alphabets only
+input: "abc"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with alphabets only
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with non-ASCII characters
+input: "äbc"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST)
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with non-ASCII characters
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with leading whitespace
+input: " 123"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with leading whitespace
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with trailing whitespace
+input: "123 "</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with trailing whitespace
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with leading and trailing whitespace
+input: " 123 "</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with leading and trailing whitespace
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with empty string
+input: ""</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST)
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with empty string
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with null value
+input: null</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST)
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with null value
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with missing value
+input:</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with missing value
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with special characters and alphabets
+input: "abc!@#"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with special characters and alphabets
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with special characters and numbers
+input: "123!@#"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with special characters and numbers
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with alphabets and numbers
+input: "abc123"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with alphabets and numbers
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with invalid separators
+input: "123,456;789"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with invalid separators
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with negative integers and alphabets
+input: "-123abc"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with negative integers and alphabets
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with negative floating-point numbers and special characters
+input: "-123.456!@#"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with negative floating-point numbers and special characters
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with invalid characters and valid separators
+input: "123|abc,456"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with invalid characters and valid separators
+6. review the response status code.</t>
+  </si>
+  <si>
+    <t>check idReseller4 with excessive length
+input: "1234567890123456789012345678901"</t>
+  </si>
+  <si>
+    <t>1. open the postman
+2. create or open the saved request
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with excessive length
+6. review the response status code.</t>
+  </si>
+  <si>
     <t>check idReseller4 with duplicated values
 input: "123,456,123"</t>
   </si>
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with duplicated values
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with duplicated values
 6. review the response status code.</t>
   </si>
   <si>
@@ -416,9 +413,9 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with  negative integers and mixed valid characters
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with  negative integers and mixed valid characters
 6. review the response status code.</t>
   </si>
   <si>
@@ -428,10 +425,13 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST - User Signup)
-4. fill the other required field with valid credentials and goto idreseller4 field
-5. test password field with special characters and excessive length
+3. define request(method -POST )
+4. fill the other required field with valid credentials and goto idReseller4 field
+5. test idReseller4 field with special characters and excessive length
 6. review the response status code.</t>
+  </si>
+  <si>
+    <t>Test Scenario: IdReseller4 Field (Negative)</t>
   </si>
 </sst>
 </file>
@@ -708,11 +708,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -720,41 +716,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -798,51 +761,12 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -850,7 +774,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -935,7 +858,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -943,33 +870,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1021,6 +922,39 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1048,6 +982,39 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1056,6 +1023,39 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1618,13 +1618,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G7" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="check idReseller4 with a negative scientific notation_x000a__x000a_input: &quot;-1.23e3&quot;" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST - User Signup)_x000a_4. fill the other required field with valid credentials and goto idreseller4 field_x000a_5. test password field with a negative scientific notation_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="check idReseller4 with a negative scientific notation_x000a__x000a_input: &quot;-1.23e3&quot;" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST )_x000a_4. fill the other required field with valid credentials and goto idReseller4 field_x000a_5. test idReseller4 field with a negative scientific notation_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1834,8 +1834,8 @@
   <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1852,7 +1852,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1958,10 +1958,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>30</v>
@@ -2000,10 +2000,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>30</v>
@@ -2040,10 +2040,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2080,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -2120,10 +2120,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>30</v>
@@ -2160,10 +2160,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -2200,10 +2200,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>30</v>
@@ -2240,10 +2240,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>30</v>
@@ -2280,10 +2280,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>30</v>
@@ -2320,10 +2320,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>30</v>
@@ -2360,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
@@ -2400,10 +2400,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>30</v>
@@ -2440,10 +2440,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>30</v>
@@ -2480,10 +2480,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>30</v>
@@ -2520,10 +2520,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>30</v>
@@ -2560,10 +2560,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>30</v>
@@ -2600,10 +2600,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>30</v>
@@ -2640,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>30</v>
@@ -2680,10 +2680,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>30</v>
@@ -2720,10 +2720,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>30</v>
@@ -2760,10 +2760,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="25" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>30</v>
@@ -2834,16 +2834,16 @@
     </row>
     <row r="26" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>30</v>
@@ -2874,16 +2874,16 @@
     </row>
     <row r="27" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="28" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>30</v>
